--- a/document/db-schema/db-schema.xlsx
+++ b/document/db-schema/db-schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\altra\app\new-dev\altra-app\document\db-schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54FC57-6A6A-4CCC-8321-FA8586535CC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEF663-36F6-4356-907F-DEE6BDF30BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,16 +703,10 @@
     <t>Used to manage different countries  which can be used for creating curriculum</t>
   </si>
   <si>
-    <t>Institution is an group of users with different roles which can be used for managing  curriculum</t>
-  </si>
-  <si>
     <t>A curriculum change request is a List of curriculum changes requested by authorized users</t>
   </si>
   <si>
     <t>A user comment is the comments provided by the authorized users on existing change request</t>
-  </si>
-  <si>
-    <t>A topic is a collection of concepts that arcan be taught</t>
   </si>
   <si>
     <t>An identical topic is list of same or similar topics</t>
@@ -912,12 +906,6 @@
     <t>UserTopicAccess</t>
   </si>
   <si>
-    <t>Define the curriculum list which can be accessable  by user</t>
-  </si>
-  <si>
-    <t>Define the topic  list which can be accessable  by user</t>
-  </si>
-  <si>
     <t>This field is generated by the backend system and is unique for each user invitation</t>
   </si>
   <si>
@@ -958,6 +946,18 @@
   </si>
   <si>
     <t>Defines topic reference</t>
+  </si>
+  <si>
+    <t>Define the curriculum list which can be accessible  by user</t>
+  </si>
+  <si>
+    <t>Define the topic  list which can be accessible  by user</t>
+  </si>
+  <si>
+    <t>A topic is a collection of concepts that can be taught</t>
+  </si>
+  <si>
+    <t>Institution is a group of users with different roles which can be used for managing  curriculum</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1461,7 @@
   <dimension ref="P3:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1521,7 @@
         <v>179</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="16:17" ht="30" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
         <v>181</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="16:17" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>94</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="16:17" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>183</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="16:17" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>184</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="16:17" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
         <v>186</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="16:17" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>189</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="16:17" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>190</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="16:17" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>191</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="16:17" x14ac:dyDescent="0.25">
@@ -1638,18 +1638,18 @@
     </row>
     <row r="24" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P24" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P25" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1711,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>115</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -3447,7 +3447,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3464,7 +3464,7 @@
         <v>111</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -3481,7 +3481,7 @@
         <v>111</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>104</v>
@@ -3606,7 +3606,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>104</v>
@@ -3640,7 +3640,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,14 +3648,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>54</v>
@@ -3778,7 +3778,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>54</v>
@@ -3795,7 +3795,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3852,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3886,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>54</v>
@@ -3903,7 +3903,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>54</v>
@@ -3920,7 +3920,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4447,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
         <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4566,7 +4566,7 @@
         <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>113</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/document/db-schema/db-schema.xlsx
+++ b/document/db-schema/db-schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\altra\app\new-dev\altra-app\document\db-schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEF663-36F6-4356-907F-DEE6BDF30BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC28F3F6-D5D4-4FDA-9AF1-FDD1B8F40C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="293">
   <si>
     <t>S.No</t>
   </si>
@@ -958,6 +958,15 @@
   </si>
   <si>
     <t>Institution is a group of users with different roles which can be used for managing  curriculum</t>
+  </si>
+  <si>
+    <t>email address for the invited user</t>
+  </si>
+  <si>
+    <t>This field defines the change request  creation date and this field will be stored in Unix epoch format</t>
+  </si>
+  <si>
+    <t>This field defines the user comment creation date and this field will be stored in Unix epoch format</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1053,11 +1062,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1121,6 +1141,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,7 +1484,7 @@
   <dimension ref="P3:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,10 +2887,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE61EC-1765-4A7A-9C0F-065C38C6FBC3}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="C1:H11"/>
+  <dimension ref="C1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2900,7 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
@@ -3084,6 +3107,24 @@
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="24">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="21" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3277,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3587,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3647,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4663,10 +4704,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B815E9B5-70A3-4E0F-82B4-A62057D3431B}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4885,6 +4926,24 @@
         <v>230</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4894,10 +4953,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F833F-DEAE-469F-A7BB-EB327A03C53C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,6 +5070,23 @@
         <v>233</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/db-schema/db-schema.xlsx
+++ b/document/db-schema/db-schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\altra\app\new-dev\altra-app\document\db-schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC28F3F6-D5D4-4FDA-9AF1-FDD1B8F40C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCC6131-E6DF-4D9B-94D4-055B456DAD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,11 +1139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,22 +1167,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>488371</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>156364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB66B6AF-5D24-4748-8AF3-9E9EE3CF59AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1C5B70-DF59-484E-88FF-72D3B021B3AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,8 +1204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="0"/>
-          <a:ext cx="7755946" cy="10058400"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8991600" cy="13872364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,7 +1484,7 @@
   <dimension ref="P3:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,10 +1494,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P4" s="19" t="s">
@@ -3110,7 +3110,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -4956,7 +4956,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
